--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cfp-Ncr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cfp-Ncr1.xlsx
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.300437333333333</v>
+        <v>0.9024946666666667</v>
       </c>
       <c r="H2">
-        <v>3.901312</v>
+        <v>2.707484</v>
       </c>
       <c r="I2">
-        <v>0.01399116206548696</v>
+        <v>0.01048932664802141</v>
       </c>
       <c r="J2">
-        <v>0.01414290094987271</v>
+        <v>0.01058096843676313</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,10 +558,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.101232</v>
+        <v>0.08893566666666668</v>
       </c>
       <c r="N2">
-        <v>0.303696</v>
+        <v>0.266807</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.131645872128</v>
+        <v>0.08026396484311112</v>
       </c>
       <c r="R2">
-        <v>1.184812849152</v>
+        <v>0.7223756835880001</v>
       </c>
       <c r="S2">
-        <v>0.01399116206548696</v>
+        <v>0.01048932664802141</v>
       </c>
       <c r="T2">
-        <v>0.01414290094987271</v>
+        <v>0.01058096843676313</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,13 +605,13 @@
         <v>1.613539</v>
       </c>
       <c r="H3">
-        <v>4.840617000000001</v>
+        <v>4.840617</v>
       </c>
       <c r="I3">
-        <v>0.01735976434182944</v>
+        <v>0.01875350432023437</v>
       </c>
       <c r="J3">
-        <v>0.01754803685715728</v>
+        <v>0.01891734750471621</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.101232</v>
+        <v>0.08893566666666668</v>
       </c>
       <c r="N3">
-        <v>0.303696</v>
+        <v>0.266807</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.163341780048</v>
+        <v>0.1435011666576667</v>
       </c>
       <c r="R3">
-        <v>1.470076020432</v>
+        <v>1.291510499919</v>
       </c>
       <c r="S3">
-        <v>0.01735976434182944</v>
+        <v>0.01875350432023437</v>
       </c>
       <c r="T3">
-        <v>0.01754803685715728</v>
+        <v>0.01891734750471621</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.28245566666666</v>
+        <v>36.42588166666667</v>
       </c>
       <c r="H4">
-        <v>69.84736699999999</v>
+        <v>109.277645</v>
       </c>
       <c r="I4">
-        <v>0.2504915863034142</v>
+        <v>0.4233631348261055</v>
       </c>
       <c r="J4">
-        <v>0.2532082522726732</v>
+        <v>0.4270619189582678</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,10 +682,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.101232</v>
+        <v>0.08893566666666668</v>
       </c>
       <c r="N4">
-        <v>0.303696</v>
+        <v>0.266807</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>2.356929552048</v>
+        <v>3.239560069946112</v>
       </c>
       <c r="R4">
-        <v>21.212365968432</v>
+        <v>29.156040629515</v>
       </c>
       <c r="S4">
-        <v>0.2504915863034142</v>
+        <v>0.4233631348261055</v>
       </c>
       <c r="T4">
-        <v>0.2532082522726732</v>
+        <v>0.4270619189582678</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.991681</v>
+        <v>2.2355605</v>
       </c>
       <c r="H5">
-        <v>5.983362000000001</v>
+        <v>4.471121</v>
       </c>
       <c r="I5">
-        <v>0.03218693638389195</v>
+        <v>0.02598300598553572</v>
       </c>
       <c r="J5">
-        <v>0.02169067639635903</v>
+        <v>0.01747334062840217</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.101232</v>
+        <v>0.08893566666666668</v>
       </c>
       <c r="N5">
-        <v>0.303696</v>
+        <v>0.266807</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.302853850992</v>
+        <v>0.1988210634411667</v>
       </c>
       <c r="R5">
-        <v>1.817123105952</v>
+        <v>1.192926380647</v>
       </c>
       <c r="S5">
-        <v>0.03218693638389195</v>
+        <v>0.02598300598553572</v>
       </c>
       <c r="T5">
-        <v>0.02169067639635903</v>
+        <v>0.01747334062840217</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>63.75894366666666</v>
+        <v>44.86185700000001</v>
       </c>
       <c r="H6">
-        <v>191.276831</v>
+        <v>134.585571</v>
       </c>
       <c r="I6">
-        <v>0.6859705509053774</v>
+        <v>0.5214110282201031</v>
       </c>
       <c r="J6">
-        <v>0.6934101335239379</v>
+        <v>0.5259664244718506</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.101232</v>
+        <v>0.08893566666666668</v>
       </c>
       <c r="N6">
-        <v>0.303696</v>
+        <v>0.266807</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>6.454445385263999</v>
+        <v>3.989819160199668</v>
       </c>
       <c r="R6">
-        <v>58.090008467376</v>
+        <v>35.90837244179701</v>
       </c>
       <c r="S6">
-        <v>0.6859705509053774</v>
+        <v>0.5214110282201031</v>
       </c>
       <c r="T6">
-        <v>0.6934101335239379</v>
+        <v>0.5259664244718506</v>
       </c>
     </row>
   </sheetData>
